--- a/birthday sheet.xlsx
+++ b/birthday sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Projects\Birthday Wisher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D858A4D-2C42-4585-80D2-958FE8A2F1A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101DD1B-61B0-4EAC-A9E5-5DC60D61FFD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -42,52 +42,64 @@
     <t>Sitanshu</t>
   </si>
   <si>
+    <t>prajay2002@gmail.com</t>
+  </si>
+  <si>
+    <t>chhedasitanshu89@gmail.com</t>
+  </si>
+  <si>
+    <t>spidey@gmail.com</t>
+  </si>
+  <si>
     <t>Kevin</t>
   </si>
   <si>
-    <t>Sambhav</t>
-  </si>
-  <si>
-    <t>Karthik</t>
+    <t>kev@gmail.com</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Nia</t>
+  </si>
+  <si>
+    <t>mor@gmail.com</t>
+  </si>
+  <si>
+    <t>ice@gmail.com</t>
   </si>
   <si>
     <t>Chris</t>
   </si>
   <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Aman</t>
+    <t>water@gmail.com</t>
+  </si>
+  <si>
+    <t>Birthdate (DD-MM-YYYY)</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Miller</t>
   </si>
   <si>
     <t>xyz@gmail.com</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>ron@gmail.com</t>
-  </si>
-  <si>
-    <t>chrisxyz@gmail.com</t>
-  </si>
-  <si>
-    <t>hen@gmail.com</t>
-  </si>
-  <si>
-    <t>man@gmail.com</t>
-  </si>
-  <si>
-    <t>spidey@gmail.com</t>
-  </si>
-  <si>
-    <t>shaq2002@gmail.com</t>
-  </si>
-  <si>
-    <t>tanshu89@gmail.com</t>
-  </si>
-  <si>
-    <t>Birthdate (DD-MM-YYYY)</t>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>han@gmail.com</t>
+  </si>
+  <si>
+    <t>kat@gmail.com</t>
+  </si>
+  <si>
+    <t>Khushi</t>
   </si>
 </sst>
 </file>
@@ -417,17 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -447,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>37433</v>
+        <v>37386</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>37535</v>
@@ -469,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>37574</v>
@@ -477,68 +489,90 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>37597</v>
+        <v>37301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>37195</v>
+        <v>37433</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>37428</v>
+        <v>37286</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>37402</v>
+        <v>37381</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>37381</v>
+        <v>37301</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>37280</v>
+        <v>37285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>37381</v>
       </c>
     </row>
   </sheetData>
@@ -546,12 +580,14 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{99A16632-6049-4B95-B4C0-E836203D7E5B}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{5A910ADB-F644-4B71-A511-72685DA7FA43}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{31DA8E10-1740-49B6-B147-58B938C7BE27}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{B5A1A71C-1848-426C-8093-31CFD64B03E9}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{93B9AB8B-8FA2-4B27-8CC2-AE87BDDA4B27}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{0D5E33A1-7056-46B6-8E3E-0377E06366D7}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{F41F54FC-52E8-4470-915F-53E58DF20ADB}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{8A9596E6-E78C-4628-8E1C-35EBF212A73B}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{4875CA0C-994B-4692-A8A6-B0A6453A42FF}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{45ED5A51-5394-4149-84FE-E70B334A1CF2}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B48AC416-68BB-4571-A201-1AD056FB2C95}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{17B4F85D-76B1-4619-BB6C-38243CD68E15}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{21F5FF15-416F-4D5D-9817-194173667EF8}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{CEC4378D-4FD1-457F-B90A-F91CCA2CC1B9}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{C556405B-E21A-42E0-AD10-03F3FD1D7FD3}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{902529C8-7915-48C9-B568-1319E1ED7507}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{B8402F04-8620-4AC6-A0AE-9A00909EB91C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
